--- a/datasets/Minecraft_Evaluacion_GUESS.xlsx
+++ b/datasets/Minecraft_Evaluacion_GUESS.xlsx
@@ -49,13 +49,13 @@
     <t>Visual Aesthetics</t>
   </si>
   <si>
-    <t>Minecraft Bedrock</t>
-  </si>
-  <si>
     <t>Minecraft Beta</t>
   </si>
   <si>
     <t>Minecraft Java Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock</t>
   </si>
 </sst>
 </file>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.24</v>
+        <v>3.13</v>
       </c>
       <c r="D2">
-        <v>5.5</v>
+        <v>3.82</v>
       </c>
       <c r="E2">
-        <v>5.73</v>
+        <v>5.08</v>
       </c>
       <c r="F2">
-        <v>6.51</v>
+        <v>3.58</v>
       </c>
       <c r="G2">
-        <v>6.23</v>
+        <v>4.41</v>
       </c>
       <c r="H2">
-        <v>5.84</v>
+        <v>3.21</v>
       </c>
       <c r="I2">
-        <v>5.93</v>
+        <v>4.31</v>
       </c>
       <c r="J2">
-        <v>5.22</v>
+        <v>4.06</v>
       </c>
       <c r="K2">
-        <v>5.38</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +497,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.8</v>
+        <v>3.63</v>
       </c>
       <c r="D3">
-        <v>5.3</v>
+        <v>3.79</v>
       </c>
       <c r="E3">
-        <v>5.8</v>
+        <v>5.06</v>
       </c>
       <c r="F3">
-        <v>5.77</v>
+        <v>4.42</v>
       </c>
       <c r="G3">
-        <v>5.79</v>
+        <v>3.85</v>
       </c>
       <c r="H3">
-        <v>6.57</v>
+        <v>3.62</v>
       </c>
       <c r="I3">
-        <v>4.82</v>
+        <v>4.78</v>
       </c>
       <c r="J3">
-        <v>5.38</v>
+        <v>4.33</v>
       </c>
       <c r="K3">
-        <v>5.88</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +532,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.46</v>
+        <v>3.03</v>
       </c>
       <c r="D4">
-        <v>5.79</v>
+        <v>3.89</v>
       </c>
       <c r="E4">
-        <v>6.35</v>
+        <v>3.96</v>
       </c>
       <c r="F4">
-        <v>6.18</v>
+        <v>3.13</v>
       </c>
       <c r="G4">
-        <v>6.93</v>
+        <v>3.6</v>
       </c>
       <c r="H4">
-        <v>6.64</v>
+        <v>3.49</v>
       </c>
       <c r="I4">
-        <v>5.92</v>
+        <v>4.19</v>
       </c>
       <c r="J4">
-        <v>5.81</v>
+        <v>3.79</v>
       </c>
       <c r="K4">
-        <v>5.91</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +567,31 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.89</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>5.68</v>
+        <v>4.39</v>
       </c>
       <c r="E5">
-        <v>5.67</v>
+        <v>4.41</v>
       </c>
       <c r="F5">
-        <v>5.98</v>
+        <v>3.48</v>
       </c>
       <c r="G5">
-        <v>5.68</v>
+        <v>4.27</v>
       </c>
       <c r="H5">
-        <v>5.84</v>
+        <v>3.35</v>
       </c>
       <c r="I5">
-        <v>5.61</v>
+        <v>4.35</v>
       </c>
       <c r="J5">
-        <v>5.89</v>
+        <v>3.77</v>
       </c>
       <c r="K5">
-        <v>5.94</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.07</v>
+        <v>3.32</v>
       </c>
       <c r="D6">
-        <v>6.4</v>
+        <v>4.98</v>
       </c>
       <c r="E6">
-        <v>6.34</v>
+        <v>4.24</v>
       </c>
       <c r="F6">
-        <v>6.5</v>
+        <v>3.29</v>
       </c>
       <c r="G6">
-        <v>5.76</v>
+        <v>3.75</v>
       </c>
       <c r="H6">
-        <v>4.84</v>
+        <v>3.58</v>
       </c>
       <c r="I6">
-        <v>5.75</v>
+        <v>3.95</v>
       </c>
       <c r="J6">
-        <v>5.8</v>
+        <v>4.18</v>
       </c>
       <c r="K6">
-        <v>5.34</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +637,31 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6.19</v>
+        <v>2.97</v>
       </c>
       <c r="D7">
-        <v>6.41</v>
+        <v>3.67</v>
       </c>
       <c r="E7">
-        <v>6.27</v>
+        <v>4.69</v>
       </c>
       <c r="F7">
-        <v>5.46</v>
+        <v>3.28</v>
       </c>
       <c r="G7">
-        <v>5.45</v>
+        <v>4.25</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>3.88</v>
       </c>
       <c r="I7">
-        <v>5.69</v>
+        <v>3.59</v>
       </c>
       <c r="J7">
-        <v>5.59</v>
+        <v>4.32</v>
       </c>
       <c r="K7">
-        <v>6.1</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +672,31 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.08</v>
+        <v>2.95</v>
       </c>
       <c r="D8">
-        <v>6.18</v>
+        <v>3.84</v>
       </c>
       <c r="E8">
-        <v>5.75</v>
+        <v>4.61</v>
       </c>
       <c r="F8">
-        <v>6.19</v>
+        <v>3.63</v>
       </c>
       <c r="G8">
-        <v>5.76</v>
+        <v>4.26</v>
       </c>
       <c r="H8">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="I8">
-        <v>6.36</v>
+        <v>4.13</v>
       </c>
       <c r="J8">
-        <v>5.41</v>
+        <v>3.38</v>
       </c>
       <c r="K8">
-        <v>5.47</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +707,31 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.27</v>
+        <v>2.91</v>
       </c>
       <c r="D9">
-        <v>5.4</v>
+        <v>3.99</v>
       </c>
       <c r="E9">
-        <v>6.03</v>
+        <v>5.22</v>
       </c>
       <c r="F9">
-        <v>6.14</v>
+        <v>3.29</v>
       </c>
       <c r="G9">
-        <v>5.83</v>
+        <v>4.09</v>
       </c>
       <c r="H9">
-        <v>5.78</v>
+        <v>3.79</v>
       </c>
       <c r="I9">
-        <v>5.69</v>
+        <v>4.68</v>
       </c>
       <c r="J9">
-        <v>6.15</v>
+        <v>4.71</v>
       </c>
       <c r="K9">
-        <v>6.32</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +742,31 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>5.39</v>
+        <v>4.42</v>
       </c>
       <c r="E10">
-        <v>6.14</v>
+        <v>4.77</v>
       </c>
       <c r="F10">
-        <v>5.34</v>
+        <v>4.24</v>
       </c>
       <c r="G10">
-        <v>5.07</v>
+        <v>4.23</v>
       </c>
       <c r="H10">
-        <v>5.28</v>
+        <v>3.66</v>
       </c>
       <c r="I10">
-        <v>6.58</v>
+        <v>4.44</v>
       </c>
       <c r="J10">
-        <v>5.62</v>
+        <v>4.14</v>
       </c>
       <c r="K10">
-        <v>5.98</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +777,31 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5.95</v>
+        <v>3.4</v>
       </c>
       <c r="D11">
-        <v>6.34</v>
+        <v>4.43</v>
       </c>
       <c r="E11">
-        <v>5.88</v>
+        <v>4.97</v>
       </c>
       <c r="F11">
-        <v>5.68</v>
+        <v>4.05</v>
       </c>
       <c r="G11">
-        <v>5.96</v>
+        <v>4.26</v>
       </c>
       <c r="H11">
-        <v>6.06</v>
+        <v>3.73</v>
       </c>
       <c r="I11">
-        <v>5.75</v>
+        <v>4.26</v>
       </c>
       <c r="J11">
-        <v>5.86</v>
+        <v>4.18</v>
       </c>
       <c r="K11">
-        <v>5.88</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +812,31 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5.83</v>
+        <v>3.35</v>
       </c>
       <c r="D12">
-        <v>5.97</v>
+        <v>3.84</v>
       </c>
       <c r="E12">
-        <v>6.2</v>
+        <v>4.51</v>
       </c>
       <c r="F12">
-        <v>5.22</v>
+        <v>4.01</v>
       </c>
       <c r="G12">
-        <v>5.91</v>
+        <v>4.08</v>
       </c>
       <c r="H12">
-        <v>5.36</v>
+        <v>3.82</v>
       </c>
       <c r="I12">
-        <v>6.04</v>
+        <v>3.66</v>
       </c>
       <c r="J12">
-        <v>6.02</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>5.68</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +847,31 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>6.31</v>
+        <v>4.07</v>
       </c>
       <c r="D13">
-        <v>5.22</v>
+        <v>3.88</v>
       </c>
       <c r="E13">
-        <v>6.06</v>
+        <v>4.59</v>
       </c>
       <c r="F13">
-        <v>5.98</v>
+        <v>3.6</v>
       </c>
       <c r="G13">
-        <v>6.09</v>
+        <v>4.63</v>
       </c>
       <c r="H13">
-        <v>5.51</v>
+        <v>3.76</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>4.31</v>
       </c>
       <c r="J13">
-        <v>5.59</v>
+        <v>3.94</v>
       </c>
       <c r="K13">
-        <v>6.29</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +882,31 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5.91</v>
+        <v>3.02</v>
       </c>
       <c r="D14">
-        <v>5.65</v>
+        <v>4.08</v>
       </c>
       <c r="E14">
-        <v>5.39</v>
+        <v>4.93</v>
       </c>
       <c r="F14">
-        <v>6.31</v>
+        <v>3.09</v>
       </c>
       <c r="G14">
-        <v>6.11</v>
+        <v>4.05</v>
       </c>
       <c r="H14">
-        <v>5.16</v>
+        <v>3.52</v>
       </c>
       <c r="I14">
-        <v>5.61</v>
+        <v>4.68</v>
       </c>
       <c r="J14">
-        <v>6.57</v>
+        <v>3.09</v>
       </c>
       <c r="K14">
-        <v>5.97</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +917,31 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.51</v>
+        <v>3.35</v>
       </c>
       <c r="D15">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="E15">
-        <v>5.53</v>
+        <v>4.47</v>
       </c>
       <c r="F15">
-        <v>5.66</v>
+        <v>3.28</v>
       </c>
       <c r="G15">
-        <v>6.32</v>
+        <v>4.75</v>
       </c>
       <c r="H15">
-        <v>5.34</v>
+        <v>3.22</v>
       </c>
       <c r="I15">
-        <v>5.52</v>
+        <v>3.32</v>
       </c>
       <c r="J15">
-        <v>5.6</v>
+        <v>3.88</v>
       </c>
       <c r="K15">
-        <v>6.95</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +952,31 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>5.95</v>
+        <v>2.79</v>
       </c>
       <c r="D16">
-        <v>5.67</v>
+        <v>4.28</v>
       </c>
       <c r="E16">
-        <v>6.18</v>
+        <v>4.6</v>
       </c>
       <c r="F16">
-        <v>5.97</v>
+        <v>3.27</v>
       </c>
       <c r="G16">
-        <v>6.92</v>
+        <v>3.49</v>
       </c>
       <c r="H16">
-        <v>5.56</v>
+        <v>4.15</v>
       </c>
       <c r="I16">
-        <v>5.86</v>
+        <v>4.46</v>
       </c>
       <c r="J16">
-        <v>6.1</v>
+        <v>3.66</v>
       </c>
       <c r="K16">
-        <v>6.36</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +987,31 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>6.18</v>
+        <v>2.77</v>
       </c>
       <c r="D17">
-        <v>6.62</v>
+        <v>3.39</v>
       </c>
       <c r="E17">
-        <v>5.65</v>
+        <v>4.22</v>
       </c>
       <c r="F17">
-        <v>5.89</v>
+        <v>3.48</v>
       </c>
       <c r="G17">
-        <v>5.68</v>
+        <v>4.1</v>
       </c>
       <c r="H17">
-        <v>6.61</v>
+        <v>3.7</v>
       </c>
       <c r="I17">
-        <v>6.15</v>
+        <v>4.34</v>
       </c>
       <c r="J17">
-        <v>5.62</v>
+        <v>3.2</v>
       </c>
       <c r="K17">
-        <v>6.29</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1022,31 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>6.15</v>
+        <v>3.17</v>
       </c>
       <c r="D18">
-        <v>5.87</v>
+        <v>4.45</v>
       </c>
       <c r="E18">
-        <v>5.8</v>
+        <v>4.64</v>
       </c>
       <c r="F18">
-        <v>5.27</v>
+        <v>3.68</v>
       </c>
       <c r="G18">
-        <v>5.97</v>
+        <v>4.23</v>
       </c>
       <c r="H18">
-        <v>5.61</v>
+        <v>3.98</v>
       </c>
       <c r="I18">
-        <v>5.37</v>
+        <v>4.46</v>
       </c>
       <c r="J18">
-        <v>6.15</v>
+        <v>4.23</v>
       </c>
       <c r="K18">
-        <v>6.05</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1057,31 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>5.87</v>
+        <v>3.48</v>
       </c>
       <c r="D19">
-        <v>6.08</v>
+        <v>3.96</v>
       </c>
       <c r="E19">
-        <v>6.23</v>
+        <v>5.08</v>
       </c>
       <c r="F19">
-        <v>6.12</v>
+        <v>3.23</v>
       </c>
       <c r="G19">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="H19">
-        <v>6.33</v>
+        <v>3.78</v>
       </c>
       <c r="I19">
-        <v>6.07</v>
+        <v>3.63</v>
       </c>
       <c r="J19">
-        <v>6.14</v>
+        <v>3.75</v>
       </c>
       <c r="K19">
-        <v>5.98</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1092,31 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>6.17</v>
+        <v>3.54</v>
       </c>
       <c r="D20">
-        <v>5.88</v>
+        <v>3.74</v>
       </c>
       <c r="E20">
-        <v>6.32</v>
+        <v>4.32</v>
       </c>
       <c r="F20">
-        <v>5.39</v>
+        <v>2.74</v>
       </c>
       <c r="G20">
-        <v>5.91</v>
+        <v>3.82</v>
       </c>
       <c r="H20">
-        <v>5.47</v>
+        <v>2.83</v>
       </c>
       <c r="I20">
-        <v>5.91</v>
+        <v>3.57</v>
       </c>
       <c r="J20">
-        <v>6.01</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>6.28</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1127,31 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>5.99</v>
+        <v>3.37</v>
       </c>
       <c r="D21">
-        <v>5.78</v>
+        <v>3.61</v>
       </c>
       <c r="E21">
-        <v>5.73</v>
+        <v>4.48</v>
       </c>
       <c r="F21">
-        <v>5.94</v>
+        <v>3.5</v>
       </c>
       <c r="G21">
-        <v>5.71</v>
+        <v>3.54</v>
       </c>
       <c r="H21">
-        <v>5.72</v>
+        <v>4.4</v>
       </c>
       <c r="I21">
-        <v>6.4</v>
+        <v>4.55</v>
       </c>
       <c r="J21">
-        <v>5.69</v>
+        <v>3.61</v>
       </c>
       <c r="K21">
-        <v>5.54</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1162,31 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>5.31</v>
+        <v>3.28</v>
       </c>
       <c r="D22">
-        <v>6.31</v>
+        <v>3.18</v>
       </c>
       <c r="E22">
-        <v>5.98</v>
+        <v>4.4</v>
       </c>
       <c r="F22">
-        <v>5.72</v>
+        <v>3.23</v>
       </c>
       <c r="G22">
-        <v>6.01</v>
+        <v>3.6</v>
       </c>
       <c r="H22">
-        <v>6.48</v>
+        <v>3.69</v>
       </c>
       <c r="I22">
-        <v>6.26</v>
+        <v>4.92</v>
       </c>
       <c r="J22">
-        <v>5.83</v>
+        <v>3.96</v>
       </c>
       <c r="K22">
-        <v>5.93</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1197,31 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>5.72</v>
+        <v>3.43</v>
       </c>
       <c r="D23">
-        <v>5.75</v>
+        <v>4.56</v>
       </c>
       <c r="E23">
-        <v>6.82</v>
+        <v>4.87</v>
       </c>
       <c r="F23">
-        <v>5.69</v>
+        <v>3.52</v>
       </c>
       <c r="G23">
-        <v>6.48</v>
+        <v>3.74</v>
       </c>
       <c r="H23">
-        <v>6.46</v>
+        <v>4.08</v>
       </c>
       <c r="I23">
-        <v>6.53</v>
+        <v>4.36</v>
       </c>
       <c r="J23">
-        <v>6.33</v>
+        <v>4.06</v>
       </c>
       <c r="K23">
-        <v>5.69</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1232,31 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>5.59</v>
+        <v>3.62</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>3.79</v>
       </c>
       <c r="E24">
-        <v>5.53</v>
+        <v>5.03</v>
       </c>
       <c r="F24">
-        <v>5.79</v>
+        <v>3.58</v>
       </c>
       <c r="G24">
-        <v>5.89</v>
+        <v>4.83</v>
       </c>
       <c r="H24">
-        <v>5.36</v>
+        <v>3.52</v>
       </c>
       <c r="I24">
-        <v>5.99</v>
+        <v>4.89</v>
       </c>
       <c r="J24">
-        <v>5.73</v>
+        <v>3.78</v>
       </c>
       <c r="K24">
-        <v>6.52</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1267,31 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>5.45</v>
+        <v>3.01</v>
       </c>
       <c r="D25">
-        <v>6.17</v>
+        <v>3.87</v>
       </c>
       <c r="E25">
-        <v>5.88</v>
+        <v>4.67</v>
       </c>
       <c r="F25">
-        <v>6.29</v>
+        <v>3.71</v>
       </c>
       <c r="G25">
-        <v>6.05</v>
+        <v>3.77</v>
       </c>
       <c r="H25">
-        <v>5.81</v>
+        <v>3.79</v>
       </c>
       <c r="I25">
-        <v>5.97</v>
+        <v>5.06</v>
       </c>
       <c r="J25">
-        <v>5.5</v>
+        <v>4.39</v>
       </c>
       <c r="K25">
-        <v>6.1</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1302,31 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>5.68</v>
+        <v>3.22</v>
       </c>
       <c r="D26">
-        <v>5.65</v>
+        <v>4.05</v>
       </c>
       <c r="E26">
-        <v>5.69</v>
+        <v>4.75</v>
       </c>
       <c r="F26">
-        <v>6.88</v>
+        <v>3.09</v>
       </c>
       <c r="G26">
-        <v>5.65</v>
+        <v>3.9</v>
       </c>
       <c r="H26">
-        <v>5.64</v>
+        <v>3.13</v>
       </c>
       <c r="I26">
-        <v>6.38</v>
+        <v>4.36</v>
       </c>
       <c r="J26">
-        <v>6.02</v>
+        <v>3.96</v>
       </c>
       <c r="K26">
-        <v>6.47</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1337,31 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>5.98</v>
+        <v>3.83</v>
       </c>
       <c r="D27">
-        <v>6.15</v>
+        <v>3.51</v>
       </c>
       <c r="E27">
-        <v>5.68</v>
+        <v>3.91</v>
       </c>
       <c r="F27">
-        <v>5.57</v>
+        <v>3.59</v>
       </c>
       <c r="G27">
-        <v>5.29</v>
+        <v>4.42</v>
       </c>
       <c r="H27">
-        <v>6.09</v>
+        <v>4.47</v>
       </c>
       <c r="I27">
-        <v>6.52</v>
+        <v>4.02</v>
       </c>
       <c r="J27">
-        <v>5.67</v>
+        <v>4.13</v>
       </c>
       <c r="K27">
-        <v>6.62</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1372,31 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>6.7</v>
+        <v>3.13</v>
       </c>
       <c r="D28">
-        <v>6.16</v>
+        <v>4.35</v>
       </c>
       <c r="E28">
-        <v>6.03</v>
+        <v>4.76</v>
       </c>
       <c r="F28">
-        <v>5.74</v>
+        <v>2.87</v>
       </c>
       <c r="G28">
-        <v>5.83</v>
+        <v>4.59</v>
       </c>
       <c r="H28">
-        <v>6.01</v>
+        <v>4.35</v>
       </c>
       <c r="I28">
-        <v>5.58</v>
+        <v>3.95</v>
       </c>
       <c r="J28">
-        <v>5.65</v>
+        <v>3.86</v>
       </c>
       <c r="K28">
-        <v>5.35</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1407,31 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>5.89</v>
+        <v>3.3</v>
       </c>
       <c r="D29">
-        <v>5.99</v>
+        <v>3.78</v>
       </c>
       <c r="E29">
-        <v>5.69</v>
+        <v>4.23</v>
       </c>
       <c r="F29">
-        <v>5.89</v>
+        <v>3.49</v>
       </c>
       <c r="G29">
-        <v>6.38</v>
+        <v>4.47</v>
       </c>
       <c r="H29">
-        <v>6.62</v>
+        <v>4.02</v>
       </c>
       <c r="I29">
-        <v>6.91</v>
+        <v>4.05</v>
       </c>
       <c r="J29">
-        <v>5.61</v>
+        <v>4.01</v>
       </c>
       <c r="K29">
-        <v>5.69</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1442,31 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>5.76</v>
+        <v>3.66</v>
       </c>
       <c r="D30">
-        <v>6.13</v>
+        <v>3.3</v>
       </c>
       <c r="E30">
-        <v>6.64</v>
+        <v>4.36</v>
       </c>
       <c r="F30">
-        <v>6.32</v>
+        <v>3.05</v>
       </c>
       <c r="G30">
-        <v>6.14</v>
+        <v>3.48</v>
       </c>
       <c r="H30">
-        <v>6.17</v>
+        <v>4.26</v>
       </c>
       <c r="I30">
-        <v>6.34</v>
+        <v>4.01</v>
       </c>
       <c r="J30">
-        <v>5.7</v>
+        <v>3.84</v>
       </c>
       <c r="K30">
-        <v>6.23</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1477,31 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>5.83</v>
+        <v>3.39</v>
       </c>
       <c r="D31">
-        <v>6.16</v>
+        <v>4.03</v>
       </c>
       <c r="E31">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="F31">
-        <v>6.33</v>
+        <v>3.9</v>
       </c>
       <c r="G31">
-        <v>5.96</v>
+        <v>3.8</v>
       </c>
       <c r="H31">
-        <v>6.37</v>
+        <v>3.18</v>
       </c>
       <c r="I31">
-        <v>6.38</v>
+        <v>4.03</v>
       </c>
       <c r="J31">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="K31">
-        <v>5.57</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1512,31 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3.27</v>
+        <v>6.36</v>
       </c>
       <c r="D32">
-        <v>3.8</v>
+        <v>5.36</v>
       </c>
       <c r="E32">
-        <v>3.84</v>
+        <v>6.57</v>
       </c>
       <c r="F32">
-        <v>4.48</v>
+        <v>6.83</v>
       </c>
       <c r="G32">
-        <v>4.15</v>
+        <v>6.35</v>
       </c>
       <c r="H32">
-        <v>3.65</v>
+        <v>6.57</v>
       </c>
       <c r="I32">
-        <v>4.13</v>
+        <v>6.31</v>
       </c>
       <c r="J32">
-        <v>4.05</v>
+        <v>6.2</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1547,31 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>3.92</v>
+        <v>6.42</v>
       </c>
       <c r="D33">
-        <v>3.6</v>
+        <v>5.47</v>
       </c>
       <c r="E33">
-        <v>3.83</v>
+        <v>6.69</v>
       </c>
       <c r="F33">
-        <v>3.29</v>
+        <v>6.29</v>
       </c>
       <c r="G33">
-        <v>4.2</v>
+        <v>6.22</v>
       </c>
       <c r="H33">
-        <v>3.79</v>
+        <v>6.69</v>
       </c>
       <c r="I33">
-        <v>4.94</v>
+        <v>5.87</v>
       </c>
       <c r="J33">
-        <v>3.88</v>
+        <v>6.13</v>
       </c>
       <c r="K33">
-        <v>4.09</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1582,31 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>5.23</v>
+        <v>6.87</v>
       </c>
       <c r="D34">
-        <v>4.03</v>
+        <v>5.64</v>
       </c>
       <c r="E34">
-        <v>3.99</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>3.96</v>
+        <v>4.84</v>
       </c>
       <c r="G34">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>3.04</v>
+        <v>6.34</v>
       </c>
       <c r="I34">
-        <v>4.15</v>
+        <v>6.34</v>
       </c>
       <c r="J34">
-        <v>4.13</v>
+        <v>5.68</v>
       </c>
       <c r="K34">
-        <v>3.98</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1617,31 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>4.7</v>
+        <v>6.08</v>
       </c>
       <c r="D35">
-        <v>3.55</v>
+        <v>5.25</v>
       </c>
       <c r="E35">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>4.57</v>
+        <v>5.92</v>
       </c>
       <c r="G35">
-        <v>3.3</v>
+        <v>6.29</v>
       </c>
       <c r="H35">
-        <v>4.38</v>
+        <v>6.75</v>
       </c>
       <c r="I35">
-        <v>4.29</v>
+        <v>6.1</v>
       </c>
       <c r="J35">
-        <v>3.42</v>
+        <v>6.16</v>
       </c>
       <c r="K35">
-        <v>5.1</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1652,31 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>4.03</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>3.22</v>
+        <v>5.48</v>
       </c>
       <c r="E36">
-        <v>3.75</v>
+        <v>6.78</v>
       </c>
       <c r="F36">
-        <v>3.72</v>
+        <v>6.42</v>
       </c>
       <c r="G36">
-        <v>3.47</v>
+        <v>6.64</v>
       </c>
       <c r="H36">
-        <v>4.05</v>
+        <v>6.87</v>
       </c>
       <c r="I36">
-        <v>4.24</v>
+        <v>6.16</v>
       </c>
       <c r="J36">
-        <v>3.5</v>
+        <v>5.64</v>
       </c>
       <c r="K36">
-        <v>3.54</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1687,31 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>4.11</v>
+        <v>6.04</v>
       </c>
       <c r="D37">
-        <v>3.38</v>
+        <v>5.62</v>
       </c>
       <c r="E37">
-        <v>4.41</v>
+        <v>6.4</v>
       </c>
       <c r="F37">
-        <v>3.61</v>
+        <v>5.97</v>
       </c>
       <c r="G37">
-        <v>4.65</v>
+        <v>6.33</v>
       </c>
       <c r="H37">
-        <v>3.84</v>
+        <v>6.53</v>
       </c>
       <c r="I37">
-        <v>3.2</v>
+        <v>6.07</v>
       </c>
       <c r="J37">
-        <v>4.77</v>
+        <v>6.75</v>
       </c>
       <c r="K37">
-        <v>4.09</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1722,31 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>4.15</v>
+        <v>6.4</v>
       </c>
       <c r="D38">
-        <v>4.26</v>
+        <v>5.89</v>
       </c>
       <c r="E38">
-        <v>3.34</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>4.39</v>
+        <v>5.51</v>
       </c>
       <c r="G38">
-        <v>4.13</v>
+        <v>6.44</v>
       </c>
       <c r="H38">
-        <v>3.38</v>
+        <v>6.68</v>
       </c>
       <c r="I38">
-        <v>4.17</v>
+        <v>5.78</v>
       </c>
       <c r="J38">
-        <v>4.13</v>
+        <v>6.65</v>
       </c>
       <c r="K38">
-        <v>3.66</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1757,31 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>6.55</v>
       </c>
       <c r="D39">
-        <v>4.24</v>
+        <v>5.43</v>
       </c>
       <c r="E39">
-        <v>4.93</v>
+        <v>6.71</v>
       </c>
       <c r="F39">
-        <v>4.15</v>
+        <v>5.56</v>
       </c>
       <c r="G39">
-        <v>4.33</v>
+        <v>5.62</v>
       </c>
       <c r="H39">
-        <v>3.64</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>3.51</v>
+        <v>5.56</v>
       </c>
       <c r="J39">
-        <v>4.12</v>
+        <v>5.7</v>
       </c>
       <c r="K39">
-        <v>4.39</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1792,31 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>4.95</v>
+        <v>6.24</v>
       </c>
       <c r="D40">
-        <v>4.41</v>
+        <v>4.97</v>
       </c>
       <c r="E40">
-        <v>4.21</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>3.59</v>
+        <v>6.4</v>
       </c>
       <c r="G40">
-        <v>3.88</v>
+        <v>5.92</v>
       </c>
       <c r="H40">
-        <v>4.48</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>3.62</v>
+        <v>6.29</v>
       </c>
       <c r="J40">
-        <v>4.58</v>
+        <v>5.97</v>
       </c>
       <c r="K40">
-        <v>3.56</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1827,31 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>4.01</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>4.41</v>
+        <v>4.94</v>
       </c>
       <c r="E41">
-        <v>4.14</v>
+        <v>6.04</v>
       </c>
       <c r="F41">
-        <v>3.96</v>
+        <v>6.41</v>
       </c>
       <c r="G41">
-        <v>4.73</v>
+        <v>7</v>
       </c>
       <c r="H41">
-        <v>4.17</v>
+        <v>6.95</v>
       </c>
       <c r="I41">
-        <v>3.87</v>
+        <v>6.13</v>
       </c>
       <c r="J41">
-        <v>3.59</v>
+        <v>6.34</v>
       </c>
       <c r="K41">
-        <v>5.36</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1862,31 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>4.36</v>
+        <v>6.8</v>
       </c>
       <c r="D42">
-        <v>3.89</v>
+        <v>5.61</v>
       </c>
       <c r="E42">
-        <v>4.24</v>
+        <v>6.74</v>
       </c>
       <c r="F42">
-        <v>3.57</v>
+        <v>5.97</v>
       </c>
       <c r="G42">
-        <v>4.24</v>
+        <v>5.9</v>
       </c>
       <c r="H42">
-        <v>3.46</v>
+        <v>6.29</v>
       </c>
       <c r="I42">
-        <v>3.96</v>
+        <v>5.22</v>
       </c>
       <c r="J42">
-        <v>4.31</v>
+        <v>6.06</v>
       </c>
       <c r="K42">
-        <v>3.58</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1897,31 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>4.09</v>
+        <v>6.06</v>
       </c>
       <c r="D43">
-        <v>3.38</v>
+        <v>5.57</v>
       </c>
       <c r="E43">
-        <v>4.11</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>3.78</v>
+        <v>6.37</v>
       </c>
       <c r="G43">
-        <v>4.19</v>
+        <v>5.57</v>
       </c>
       <c r="H43">
-        <v>4.43</v>
+        <v>6</v>
       </c>
       <c r="I43">
-        <v>3.56</v>
+        <v>6.28</v>
       </c>
       <c r="J43">
-        <v>3.24</v>
+        <v>5.71</v>
       </c>
       <c r="K43">
-        <v>4.08</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1932,31 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>4.53</v>
+        <v>6.72</v>
       </c>
       <c r="D44">
-        <v>4.54</v>
+        <v>5.11</v>
       </c>
       <c r="E44">
-        <v>4.28</v>
+        <v>6.74</v>
       </c>
       <c r="F44">
-        <v>3.43</v>
+        <v>5.47</v>
       </c>
       <c r="G44">
-        <v>3.31</v>
+        <v>5.96</v>
       </c>
       <c r="H44">
-        <v>4.18</v>
+        <v>6.53</v>
       </c>
       <c r="I44">
-        <v>3.53</v>
+        <v>5.26</v>
       </c>
       <c r="J44">
-        <v>4.03</v>
+        <v>6.28</v>
       </c>
       <c r="K44">
-        <v>4.26</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1967,31 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>4.48</v>
+        <v>6.72</v>
       </c>
       <c r="D45">
-        <v>4.57</v>
+        <v>5.59</v>
       </c>
       <c r="E45">
-        <v>4.29</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>4.26</v>
+        <v>6.05</v>
       </c>
       <c r="G45">
-        <v>4.33</v>
+        <v>6.03</v>
       </c>
       <c r="H45">
-        <v>5.93</v>
+        <v>6.45</v>
       </c>
       <c r="I45">
-        <v>3.84</v>
+        <v>6.12</v>
       </c>
       <c r="J45">
-        <v>4.26</v>
+        <v>6.12</v>
       </c>
       <c r="K45">
-        <v>4.38</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2002,31 @@
         <v>15</v>
       </c>
       <c r="C46">
-        <v>3.07</v>
+        <v>6.22</v>
       </c>
       <c r="D46">
-        <v>5.16</v>
+        <v>5.23</v>
       </c>
       <c r="E46">
-        <v>4.04</v>
+        <v>6.14</v>
       </c>
       <c r="F46">
-        <v>3.88</v>
+        <v>6.7</v>
       </c>
       <c r="G46">
-        <v>4.34</v>
+        <v>5.7</v>
       </c>
       <c r="H46">
-        <v>3.76</v>
+        <v>6.12</v>
       </c>
       <c r="I46">
-        <v>3.19</v>
+        <v>5.61</v>
       </c>
       <c r="J46">
-        <v>3.61</v>
+        <v>6.46</v>
       </c>
       <c r="K46">
-        <v>3.76</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2037,31 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>3.63</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>4.34</v>
+        <v>5.23</v>
       </c>
       <c r="E47">
-        <v>3.64</v>
+        <v>6.81</v>
       </c>
       <c r="F47">
-        <v>4.03</v>
+        <v>5.67</v>
       </c>
       <c r="G47">
-        <v>4.11</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>3.46</v>
+        <v>5.92</v>
       </c>
       <c r="I47">
-        <v>4.02</v>
+        <v>6.02</v>
       </c>
       <c r="J47">
-        <v>4.54</v>
+        <v>6.35</v>
       </c>
       <c r="K47">
-        <v>3.67</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2072,31 @@
         <v>17</v>
       </c>
       <c r="C48">
-        <v>4.43</v>
+        <v>6.43</v>
       </c>
       <c r="D48">
-        <v>3.67</v>
+        <v>5.45</v>
       </c>
       <c r="E48">
-        <v>4.09</v>
+        <v>6.72</v>
       </c>
       <c r="F48">
-        <v>4.32</v>
+        <v>5.94</v>
       </c>
       <c r="G48">
-        <v>3.6</v>
+        <v>6.59</v>
       </c>
       <c r="H48">
-        <v>2.99</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>3.94</v>
+        <v>5.68</v>
       </c>
       <c r="J48">
-        <v>5.07</v>
+        <v>5.55</v>
       </c>
       <c r="K48">
-        <v>4.25</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2107,31 @@
         <v>18</v>
       </c>
       <c r="C49">
-        <v>4.88</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>3.67</v>
+        <v>5.18</v>
       </c>
       <c r="E49">
-        <v>3.76</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>3.4</v>
+        <v>6.67</v>
       </c>
       <c r="G49">
-        <v>4.2</v>
+        <v>5.98</v>
       </c>
       <c r="H49">
-        <v>3.83</v>
+        <v>6.63</v>
       </c>
       <c r="I49">
-        <v>3.37</v>
+        <v>6.55</v>
       </c>
       <c r="J49">
-        <v>4.43</v>
+        <v>5.95</v>
       </c>
       <c r="K49">
-        <v>4.46</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2142,31 @@
         <v>19</v>
       </c>
       <c r="C50">
-        <v>3.65</v>
+        <v>6.27</v>
       </c>
       <c r="D50">
-        <v>4.63</v>
+        <v>5.09</v>
       </c>
       <c r="E50">
-        <v>3.76</v>
+        <v>6.44</v>
       </c>
       <c r="F50">
-        <v>4.52</v>
+        <v>5.51</v>
       </c>
       <c r="G50">
-        <v>4.22</v>
+        <v>6.21</v>
       </c>
       <c r="H50">
-        <v>3.24</v>
+        <v>6.09</v>
       </c>
       <c r="I50">
-        <v>4.39</v>
+        <v>5.99</v>
       </c>
       <c r="J50">
-        <v>5.06</v>
+        <v>5.48</v>
       </c>
       <c r="K50">
-        <v>3.54</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2177,31 @@
         <v>20</v>
       </c>
       <c r="C51">
-        <v>4.82</v>
+        <v>6.83</v>
       </c>
       <c r="D51">
-        <v>3.38</v>
+        <v>4.7</v>
       </c>
       <c r="E51">
-        <v>3.87</v>
+        <v>6.85</v>
       </c>
       <c r="F51">
-        <v>2.38</v>
+        <v>6.49</v>
       </c>
       <c r="G51">
-        <v>3.28</v>
+        <v>5.72</v>
       </c>
       <c r="H51">
-        <v>3.49</v>
+        <v>7</v>
       </c>
       <c r="I51">
-        <v>3.78</v>
+        <v>6.07</v>
       </c>
       <c r="J51">
-        <v>3.97</v>
+        <v>5.82</v>
       </c>
       <c r="K51">
-        <v>4.07</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2212,31 @@
         <v>21</v>
       </c>
       <c r="C52">
-        <v>4.23</v>
+        <v>6.72</v>
       </c>
       <c r="D52">
-        <v>3.51</v>
+        <v>5.53</v>
       </c>
       <c r="E52">
-        <v>4.01</v>
+        <v>6.92</v>
       </c>
       <c r="F52">
-        <v>3.28</v>
+        <v>5.63</v>
       </c>
       <c r="G52">
-        <v>4.1</v>
+        <v>6.27</v>
       </c>
       <c r="H52">
-        <v>4.58</v>
+        <v>5.83</v>
       </c>
       <c r="I52">
-        <v>3.7</v>
+        <v>5.86</v>
       </c>
       <c r="J52">
-        <v>4.72</v>
+        <v>5.74</v>
       </c>
       <c r="K52">
-        <v>4.03</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2247,31 @@
         <v>22</v>
       </c>
       <c r="C53">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="D53">
-        <v>3.38</v>
+        <v>5.94</v>
       </c>
       <c r="E53">
-        <v>4.79</v>
+        <v>6.94</v>
       </c>
       <c r="F53">
-        <v>4.06</v>
+        <v>5.56</v>
       </c>
       <c r="G53">
-        <v>3.02</v>
+        <v>6.07</v>
       </c>
       <c r="H53">
-        <v>4.33</v>
+        <v>6.89</v>
       </c>
       <c r="I53">
-        <v>3.92</v>
+        <v>5.96</v>
       </c>
       <c r="J53">
-        <v>3.81</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>4.29</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2282,31 @@
         <v>23</v>
       </c>
       <c r="C54">
-        <v>4.42</v>
+        <v>6.58</v>
       </c>
       <c r="D54">
-        <v>3.71</v>
+        <v>5.38</v>
       </c>
       <c r="E54">
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="F54">
-        <v>3.69</v>
+        <v>5.94</v>
       </c>
       <c r="G54">
-        <v>4.18</v>
+        <v>6.48</v>
       </c>
       <c r="H54">
-        <v>3.9</v>
+        <v>6.78</v>
       </c>
       <c r="I54">
-        <v>3.65</v>
+        <v>5.59</v>
       </c>
       <c r="J54">
-        <v>4.14</v>
+        <v>5.57</v>
       </c>
       <c r="K54">
-        <v>4.45</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2317,31 +2317,31 @@
         <v>24</v>
       </c>
       <c r="C55">
-        <v>4.37</v>
+        <v>6.7</v>
       </c>
       <c r="D55">
-        <v>3.72</v>
+        <v>5.06</v>
       </c>
       <c r="E55">
-        <v>3.59</v>
+        <v>5.84</v>
       </c>
       <c r="F55">
-        <v>4.41</v>
+        <v>6.16</v>
       </c>
       <c r="G55">
-        <v>4.31</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>4.31</v>
+        <v>6.4</v>
       </c>
       <c r="I55">
-        <v>3.99</v>
+        <v>6.24</v>
       </c>
       <c r="J55">
-        <v>4.15</v>
+        <v>6.13</v>
       </c>
       <c r="K55">
-        <v>4.06</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2352,31 +2352,31 @@
         <v>25</v>
       </c>
       <c r="C56">
-        <v>4.55</v>
+        <v>6.87</v>
       </c>
       <c r="D56">
-        <v>3.89</v>
+        <v>5.38</v>
       </c>
       <c r="E56">
-        <v>3.9</v>
+        <v>6.81</v>
       </c>
       <c r="F56">
-        <v>3.7</v>
+        <v>6.13</v>
       </c>
       <c r="G56">
-        <v>4.41</v>
+        <v>5.93</v>
       </c>
       <c r="H56">
-        <v>4.27</v>
+        <v>6.8</v>
       </c>
       <c r="I56">
-        <v>4.41</v>
+        <v>5.83</v>
       </c>
       <c r="J56">
-        <v>4.64</v>
+        <v>5.8</v>
       </c>
       <c r="K56">
-        <v>4.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2387,31 +2387,31 @@
         <v>26</v>
       </c>
       <c r="C57">
-        <v>4.05</v>
+        <v>6.14</v>
       </c>
       <c r="D57">
-        <v>3.93</v>
+        <v>5.51</v>
       </c>
       <c r="E57">
-        <v>4.16</v>
+        <v>6.7</v>
       </c>
       <c r="F57">
-        <v>4.34</v>
+        <v>6.43</v>
       </c>
       <c r="G57">
-        <v>4.3</v>
+        <v>6.39</v>
       </c>
       <c r="H57">
-        <v>3.84</v>
+        <v>6.39</v>
       </c>
       <c r="I57">
-        <v>3.59</v>
+        <v>6.23</v>
       </c>
       <c r="J57">
-        <v>4.01</v>
+        <v>6.66</v>
       </c>
       <c r="K57">
-        <v>5.05</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2422,31 +2422,31 @@
         <v>27</v>
       </c>
       <c r="C58">
-        <v>4.31</v>
+        <v>6.5</v>
       </c>
       <c r="D58">
-        <v>4.31</v>
+        <v>4.98</v>
       </c>
       <c r="E58">
-        <v>4.4</v>
+        <v>6.27</v>
       </c>
       <c r="F58">
-        <v>3.39</v>
+        <v>5.88</v>
       </c>
       <c r="G58">
-        <v>3.99</v>
+        <v>5.96</v>
       </c>
       <c r="H58">
-        <v>4.58</v>
+        <v>6.33</v>
       </c>
       <c r="I58">
-        <v>3.55</v>
+        <v>5.92</v>
       </c>
       <c r="J58">
-        <v>3.5</v>
+        <v>6.31</v>
       </c>
       <c r="K58">
-        <v>4.04</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2457,31 +2457,31 @@
         <v>28</v>
       </c>
       <c r="C59">
-        <v>4.21</v>
+        <v>6.69</v>
       </c>
       <c r="D59">
-        <v>3.84</v>
+        <v>5.53</v>
       </c>
       <c r="E59">
-        <v>3.59</v>
+        <v>5.91</v>
       </c>
       <c r="F59">
-        <v>4.49</v>
+        <v>5.62</v>
       </c>
       <c r="G59">
-        <v>3.72</v>
+        <v>6.14</v>
       </c>
       <c r="H59">
-        <v>3.93</v>
+        <v>5.92</v>
       </c>
       <c r="I59">
-        <v>3.59</v>
+        <v>6.14</v>
       </c>
       <c r="J59">
-        <v>3.66</v>
+        <v>6.71</v>
       </c>
       <c r="K59">
-        <v>4.12</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2492,31 +2492,31 @@
         <v>29</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>6.41</v>
       </c>
       <c r="D60">
-        <v>3.28</v>
+        <v>6.1</v>
       </c>
       <c r="E60">
-        <v>4.12</v>
+        <v>6.76</v>
       </c>
       <c r="F60">
-        <v>3.75</v>
+        <v>5.87</v>
       </c>
       <c r="G60">
-        <v>3.64</v>
+        <v>5.95</v>
       </c>
       <c r="H60">
-        <v>3.76</v>
+        <v>6.28</v>
       </c>
       <c r="I60">
-        <v>3.89</v>
+        <v>5.74</v>
       </c>
       <c r="J60">
-        <v>4.12</v>
+        <v>6.17</v>
       </c>
       <c r="K60">
-        <v>4.16</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2527,31 +2527,31 @@
         <v>30</v>
       </c>
       <c r="C61">
-        <v>3.99</v>
+        <v>6.5</v>
       </c>
       <c r="D61">
-        <v>3.5</v>
+        <v>5.67</v>
       </c>
       <c r="E61">
-        <v>3.99</v>
+        <v>7</v>
       </c>
       <c r="F61">
-        <v>4.43</v>
+        <v>6.38</v>
       </c>
       <c r="G61">
-        <v>3.86</v>
+        <v>5.61</v>
       </c>
       <c r="H61">
-        <v>3.92</v>
+        <v>5.38</v>
       </c>
       <c r="I61">
-        <v>4.16</v>
+        <v>6.27</v>
       </c>
       <c r="J61">
-        <v>4.74</v>
+        <v>5.55</v>
       </c>
       <c r="K61">
-        <v>3.59</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2562,31 +2562,31 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>5.94</v>
+        <v>5.33</v>
       </c>
       <c r="D62">
-        <v>6.38</v>
+        <v>5.28</v>
       </c>
       <c r="E62">
-        <v>6.26</v>
+        <v>6.22</v>
       </c>
       <c r="F62">
-        <v>6.71</v>
+        <v>5.8</v>
       </c>
       <c r="G62">
-        <v>6.19</v>
+        <v>5.47</v>
       </c>
       <c r="H62">
+        <v>4.56</v>
+      </c>
+      <c r="I62">
+        <v>5.18</v>
+      </c>
+      <c r="J62">
         <v>6.06</v>
       </c>
-      <c r="I62">
-        <v>6.11</v>
-      </c>
-      <c r="J62">
-        <v>6.31</v>
-      </c>
       <c r="K62">
-        <v>6.14</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2597,31 +2597,31 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>6.96</v>
+        <v>5.87</v>
       </c>
       <c r="D63">
-        <v>6.48</v>
+        <v>5.99</v>
       </c>
       <c r="E63">
-        <v>6.68</v>
+        <v>6.23</v>
       </c>
       <c r="F63">
-        <v>6.11</v>
+        <v>5.55</v>
       </c>
       <c r="G63">
-        <v>5.79</v>
+        <v>5.31</v>
       </c>
       <c r="H63">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="I63">
-        <v>6.45</v>
+        <v>5.34</v>
       </c>
       <c r="J63">
-        <v>5.79</v>
+        <v>5.89</v>
       </c>
       <c r="K63">
-        <v>6.17</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2632,31 +2632,31 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>5.89</v>
+        <v>5.62</v>
       </c>
       <c r="D64">
-        <v>5.25</v>
+        <v>5.65</v>
       </c>
       <c r="E64">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F64">
-        <v>5.78</v>
+        <v>6.18</v>
       </c>
       <c r="G64">
-        <v>5.8</v>
+        <v>5.15</v>
       </c>
       <c r="H64">
-        <v>5.76</v>
+        <v>4.95</v>
       </c>
       <c r="I64">
-        <v>6.16</v>
+        <v>5.99</v>
       </c>
       <c r="J64">
-        <v>6.98</v>
+        <v>5.82</v>
       </c>
       <c r="K64">
-        <v>6.24</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2667,31 +2667,31 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>5.57</v>
+        <v>6.22</v>
       </c>
       <c r="D65">
-        <v>6.3</v>
+        <v>5.76</v>
       </c>
       <c r="E65">
-        <v>5.74</v>
+        <v>6.73</v>
       </c>
       <c r="F65">
-        <v>6.48</v>
+        <v>5.77</v>
       </c>
       <c r="G65">
-        <v>6.83</v>
+        <v>5.5</v>
       </c>
       <c r="H65">
-        <v>5.87</v>
+        <v>6.46</v>
       </c>
       <c r="I65">
-        <v>6.57</v>
+        <v>5.16</v>
       </c>
       <c r="J65">
-        <v>6.85</v>
+        <v>6.2</v>
       </c>
       <c r="K65">
-        <v>5.91</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2702,31 +2702,31 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>5.86</v>
+        <v>6.32</v>
       </c>
       <c r="D66">
-        <v>5.46</v>
+        <v>6.62</v>
       </c>
       <c r="E66">
-        <v>6.6</v>
+        <v>6.01</v>
       </c>
       <c r="F66">
-        <v>6.64</v>
+        <v>5.2</v>
       </c>
       <c r="G66">
-        <v>6.1</v>
+        <v>5.88</v>
       </c>
       <c r="H66">
-        <v>6.05</v>
+        <v>5.33</v>
       </c>
       <c r="I66">
-        <v>6.12</v>
+        <v>6.21</v>
       </c>
       <c r="J66">
-        <v>5.41</v>
+        <v>5.95</v>
       </c>
       <c r="K66">
-        <v>5.92</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2737,31 +2737,31 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>6.38</v>
+        <v>5.87</v>
       </c>
       <c r="D67">
-        <v>6.31</v>
+        <v>5.46</v>
       </c>
       <c r="E67">
-        <v>6.15</v>
+        <v>5.61</v>
       </c>
       <c r="F67">
-        <v>5.67</v>
+        <v>5.98</v>
       </c>
       <c r="G67">
-        <v>5.65</v>
+        <v>5.44</v>
       </c>
       <c r="H67">
-        <v>6.04</v>
+        <v>5.18</v>
       </c>
       <c r="I67">
-        <v>5.49</v>
+        <v>5.61</v>
       </c>
       <c r="J67">
-        <v>6.35</v>
+        <v>6.37</v>
       </c>
       <c r="K67">
-        <v>6.61</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2772,31 +2772,31 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>6.13</v>
+        <v>6.2</v>
       </c>
       <c r="D68">
-        <v>6.57</v>
+        <v>5.7</v>
       </c>
       <c r="E68">
-        <v>6.15</v>
+        <v>5.43</v>
       </c>
       <c r="F68">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="G68">
-        <v>6.92</v>
+        <v>5.57</v>
       </c>
       <c r="H68">
-        <v>6.72</v>
+        <v>5.5</v>
       </c>
       <c r="I68">
-        <v>6.8</v>
+        <v>5.93</v>
       </c>
       <c r="J68">
-        <v>6.23</v>
+        <v>6.12</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2807,31 +2807,31 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>6.52</v>
+        <v>6.67</v>
       </c>
       <c r="D69">
+        <v>5.74</v>
+      </c>
+      <c r="E69">
         <v>6.37</v>
       </c>
-      <c r="E69">
-        <v>5.71</v>
-      </c>
       <c r="F69">
-        <v>6.36</v>
+        <v>5.52</v>
       </c>
       <c r="G69">
-        <v>5.4</v>
+        <v>5.81</v>
       </c>
       <c r="H69">
-        <v>6.65</v>
+        <v>6.21</v>
       </c>
       <c r="I69">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="J69">
-        <v>6.49</v>
+        <v>6.12</v>
       </c>
       <c r="K69">
-        <v>5.28</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2842,31 +2842,31 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>5.55</v>
+        <v>5.65</v>
       </c>
       <c r="D70">
-        <v>6.75</v>
+        <v>5.66</v>
       </c>
       <c r="E70">
-        <v>6.13</v>
+        <v>5.58</v>
       </c>
       <c r="F70">
-        <v>6.39</v>
+        <v>4.71</v>
       </c>
       <c r="G70">
-        <v>5.42</v>
+        <v>6.52</v>
       </c>
       <c r="H70">
-        <v>6.7</v>
+        <v>5.16</v>
       </c>
       <c r="I70">
-        <v>6.08</v>
+        <v>5.31</v>
       </c>
       <c r="J70">
-        <v>5.99</v>
+        <v>5.79</v>
       </c>
       <c r="K70">
-        <v>6.25</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2877,31 +2877,31 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>6.25</v>
+        <v>6.13</v>
       </c>
       <c r="D71">
-        <v>6.37</v>
+        <v>6.34</v>
       </c>
       <c r="E71">
-        <v>5.58</v>
+        <v>5.77</v>
       </c>
       <c r="F71">
-        <v>5.27</v>
+        <v>5.43</v>
       </c>
       <c r="G71">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="H71">
-        <v>6.06</v>
+        <v>5.5</v>
       </c>
       <c r="I71">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="J71">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="K71">
-        <v>5.68</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2912,31 +2912,31 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>5.78</v>
+        <v>6.07</v>
       </c>
       <c r="D72">
-        <v>5.89</v>
+        <v>6.47</v>
       </c>
       <c r="E72">
-        <v>6.3</v>
+        <v>6.07</v>
       </c>
       <c r="F72">
-        <v>6.48</v>
+        <v>4.98</v>
       </c>
       <c r="G72">
-        <v>6.06</v>
+        <v>5.86</v>
       </c>
       <c r="H72">
-        <v>5.71</v>
+        <v>5.34</v>
       </c>
       <c r="I72">
-        <v>5.69</v>
+        <v>5.19</v>
       </c>
       <c r="J72">
-        <v>6.07</v>
+        <v>6.13</v>
       </c>
       <c r="K72">
-        <v>5.88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2947,31 +2947,31 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>6.06</v>
+        <v>5.81</v>
       </c>
       <c r="D73">
-        <v>6.19</v>
+        <v>6.12</v>
       </c>
       <c r="E73">
-        <v>5.82</v>
+        <v>6.68</v>
       </c>
       <c r="F73">
-        <v>6.89</v>
+        <v>5.6</v>
       </c>
       <c r="G73">
-        <v>6.01</v>
+        <v>6.74</v>
       </c>
       <c r="H73">
-        <v>6.11</v>
+        <v>5.83</v>
       </c>
       <c r="I73">
-        <v>6.35</v>
+        <v>4.7</v>
       </c>
       <c r="J73">
-        <v>5.62</v>
+        <v>6.2</v>
       </c>
       <c r="K73">
-        <v>6.4</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2982,31 +2982,31 @@
         <v>13</v>
       </c>
       <c r="C74">
-        <v>6.65</v>
+        <v>6.32</v>
       </c>
       <c r="D74">
-        <v>5.49</v>
+        <v>6.27</v>
       </c>
       <c r="E74">
-        <v>5.18</v>
+        <v>5.94</v>
       </c>
       <c r="F74">
-        <v>5.87</v>
+        <v>5.01</v>
       </c>
       <c r="G74">
-        <v>6.76</v>
+        <v>5.62</v>
       </c>
       <c r="H74">
-        <v>5.99</v>
+        <v>5.26</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>5.17</v>
       </c>
       <c r="J74">
-        <v>5.89</v>
+        <v>6.14</v>
       </c>
       <c r="K74">
-        <v>6.33</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3017,31 +3017,31 @@
         <v>14</v>
       </c>
       <c r="C75">
+        <v>5.96</v>
+      </c>
+      <c r="D75">
+        <v>5.52</v>
+      </c>
+      <c r="E75">
+        <v>6.18</v>
+      </c>
+      <c r="F75">
+        <v>5.98</v>
+      </c>
+      <c r="G75">
         <v>5.46</v>
       </c>
-      <c r="D75">
-        <v>5.72</v>
-      </c>
-      <c r="E75">
-        <v>6.05</v>
-      </c>
-      <c r="F75">
-        <v>7</v>
-      </c>
-      <c r="G75">
-        <v>6.18</v>
-      </c>
       <c r="H75">
-        <v>6.55</v>
+        <v>5.55</v>
       </c>
       <c r="I75">
-        <v>5.8</v>
+        <v>5.41</v>
       </c>
       <c r="J75">
-        <v>6.22</v>
+        <v>5.59</v>
       </c>
       <c r="K75">
-        <v>5.53</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3052,31 +3052,31 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <v>6.69</v>
+        <v>5.75</v>
       </c>
       <c r="D76">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="E76">
-        <v>6.45</v>
+        <v>5.65</v>
       </c>
       <c r="F76">
-        <v>5.67</v>
+        <v>5.33</v>
       </c>
       <c r="G76">
-        <v>6.13</v>
+        <v>5.99</v>
       </c>
       <c r="H76">
-        <v>6.77</v>
+        <v>5.45</v>
       </c>
       <c r="I76">
-        <v>5.76</v>
+        <v>6.09</v>
       </c>
       <c r="J76">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="K76">
-        <v>6.71</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3087,31 +3087,31 @@
         <v>16</v>
       </c>
       <c r="C77">
-        <v>6.47</v>
+        <v>6.17</v>
       </c>
       <c r="D77">
-        <v>5.55</v>
+        <v>5.43</v>
       </c>
       <c r="E77">
-        <v>5.75</v>
+        <v>5.3</v>
       </c>
       <c r="F77">
-        <v>5.69</v>
+        <v>4.89</v>
       </c>
       <c r="G77">
-        <v>6.86</v>
+        <v>6.21</v>
       </c>
       <c r="H77">
-        <v>6.02</v>
+        <v>5.38</v>
       </c>
       <c r="I77">
-        <v>5.54</v>
+        <v>6.42</v>
       </c>
       <c r="J77">
-        <v>6.32</v>
+        <v>5.67</v>
       </c>
       <c r="K77">
-        <v>6.33</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3122,31 +3122,31 @@
         <v>17</v>
       </c>
       <c r="C78">
-        <v>5.77</v>
+        <v>6.42</v>
       </c>
       <c r="D78">
-        <v>6.12</v>
+        <v>6.8</v>
       </c>
       <c r="E78">
-        <v>5.75</v>
+        <v>6.82</v>
       </c>
       <c r="F78">
-        <v>5.91</v>
+        <v>5.98</v>
       </c>
       <c r="G78">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="H78">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="I78">
-        <v>6.08</v>
+        <v>5.71</v>
       </c>
       <c r="J78">
-        <v>5.84</v>
+        <v>5.68</v>
       </c>
       <c r="K78">
-        <v>6</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3157,31 +3157,31 @@
         <v>18</v>
       </c>
       <c r="C79">
-        <v>6.14</v>
+        <v>5.8</v>
       </c>
       <c r="D79">
-        <v>5.71</v>
+        <v>5.93</v>
       </c>
       <c r="E79">
-        <v>6.3</v>
+        <v>5.82</v>
       </c>
       <c r="F79">
-        <v>5.87</v>
+        <v>5.78</v>
       </c>
       <c r="G79">
-        <v>6.4</v>
+        <v>6.08</v>
       </c>
       <c r="H79">
-        <v>6.4</v>
+        <v>5.64</v>
       </c>
       <c r="I79">
-        <v>5.43</v>
+        <v>5.99</v>
       </c>
       <c r="J79">
-        <v>5.74</v>
+        <v>5.44</v>
       </c>
       <c r="K79">
-        <v>6.32</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3192,31 +3192,31 @@
         <v>19</v>
       </c>
       <c r="C80">
-        <v>6.12</v>
+        <v>5.51</v>
       </c>
       <c r="D80">
+        <v>5.25</v>
+      </c>
+      <c r="E80">
+        <v>5.97</v>
+      </c>
+      <c r="F80">
         <v>5.45</v>
       </c>
-      <c r="E80">
-        <v>5.38</v>
-      </c>
-      <c r="F80">
-        <v>6.33</v>
-      </c>
       <c r="G80">
-        <v>6.2</v>
+        <v>6.31</v>
       </c>
       <c r="H80">
-        <v>5.79</v>
+        <v>5.85</v>
       </c>
       <c r="I80">
-        <v>5.74</v>
+        <v>4.99</v>
       </c>
       <c r="J80">
-        <v>5.83</v>
+        <v>6.64</v>
       </c>
       <c r="K80">
-        <v>6.36</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3227,31 +3227,31 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <v>5.76</v>
+        <v>6.03</v>
       </c>
       <c r="D81">
-        <v>6.12</v>
+        <v>5.91</v>
       </c>
       <c r="E81">
-        <v>5.84</v>
+        <v>5.62</v>
       </c>
       <c r="F81">
-        <v>6.07</v>
+        <v>5.35</v>
       </c>
       <c r="G81">
-        <v>5.95</v>
+        <v>6.14</v>
       </c>
       <c r="H81">
-        <v>5.62</v>
+        <v>6.35</v>
       </c>
       <c r="I81">
-        <v>6.5</v>
+        <v>6.02</v>
       </c>
       <c r="J81">
-        <v>5.44</v>
+        <v>5.7</v>
       </c>
       <c r="K81">
-        <v>5.87</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3262,31 +3262,31 @@
         <v>21</v>
       </c>
       <c r="C82">
-        <v>5.78</v>
+        <v>5.86</v>
       </c>
       <c r="D82">
-        <v>5.11</v>
+        <v>5.29</v>
       </c>
       <c r="E82">
-        <v>6.68</v>
+        <v>6.13</v>
       </c>
       <c r="F82">
-        <v>5.65</v>
+        <v>5.44</v>
       </c>
       <c r="G82">
-        <v>6.33</v>
+        <v>5.51</v>
       </c>
       <c r="H82">
-        <v>6.31</v>
+        <v>4.96</v>
       </c>
       <c r="I82">
-        <v>6.02</v>
+        <v>5.61</v>
       </c>
       <c r="J82">
-        <v>6.43</v>
+        <v>5.69</v>
       </c>
       <c r="K82">
-        <v>6.25</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3297,31 +3297,31 @@
         <v>22</v>
       </c>
       <c r="C83">
-        <v>6.24</v>
+        <v>4.65</v>
       </c>
       <c r="D83">
-        <v>6.2</v>
+        <v>5.99</v>
       </c>
       <c r="E83">
-        <v>6.57</v>
+        <v>6.71</v>
       </c>
       <c r="F83">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="G83">
-        <v>5.94</v>
+        <v>5.52</v>
       </c>
       <c r="H83">
-        <v>6.04</v>
+        <v>5.36</v>
       </c>
       <c r="I83">
-        <v>5.9</v>
+        <v>5.59</v>
       </c>
       <c r="J83">
-        <v>5.86</v>
+        <v>5.5</v>
       </c>
       <c r="K83">
-        <v>5.93</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3332,31 +3332,31 @@
         <v>23</v>
       </c>
       <c r="C84">
-        <v>5.97</v>
+        <v>6.11</v>
       </c>
       <c r="D84">
-        <v>6.45</v>
+        <v>6.49</v>
       </c>
       <c r="E84">
-        <v>6.93</v>
+        <v>5.96</v>
       </c>
       <c r="F84">
-        <v>5.93</v>
+        <v>5.42</v>
       </c>
       <c r="G84">
-        <v>6.58</v>
+        <v>5.35</v>
       </c>
       <c r="H84">
-        <v>6.22</v>
+        <v>5.27</v>
       </c>
       <c r="I84">
-        <v>5.94</v>
+        <v>5.31</v>
       </c>
       <c r="J84">
-        <v>6.26</v>
+        <v>6.05</v>
       </c>
       <c r="K84">
-        <v>5.28</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3367,31 +3367,31 @@
         <v>24</v>
       </c>
       <c r="C85">
-        <v>6.23</v>
+        <v>5.48</v>
       </c>
       <c r="D85">
-        <v>6.77</v>
+        <v>6.6</v>
       </c>
       <c r="E85">
-        <v>6.11</v>
+        <v>5.89</v>
       </c>
       <c r="F85">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="G85">
-        <v>6.01</v>
+        <v>5.4</v>
       </c>
       <c r="H85">
-        <v>5.96</v>
+        <v>4.63</v>
       </c>
       <c r="I85">
-        <v>6.43</v>
+        <v>5.75</v>
       </c>
       <c r="J85">
-        <v>5.7</v>
+        <v>6.19</v>
       </c>
       <c r="K85">
-        <v>5.22</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3402,31 +3402,31 @@
         <v>25</v>
       </c>
       <c r="C86">
-        <v>5.93</v>
+        <v>5.83</v>
       </c>
       <c r="D86">
-        <v>6.24</v>
+        <v>6.21</v>
       </c>
       <c r="E86">
-        <v>6.56</v>
+        <v>5.37</v>
       </c>
       <c r="F86">
-        <v>6.41</v>
+        <v>5.29</v>
       </c>
       <c r="G86">
-        <v>6.35</v>
+        <v>6.02</v>
       </c>
       <c r="H86">
-        <v>5.51</v>
+        <v>5.1</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>5.52</v>
       </c>
       <c r="J86">
-        <v>6.19</v>
+        <v>5.36</v>
       </c>
       <c r="K86">
-        <v>6.17</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3437,31 +3437,31 @@
         <v>26</v>
       </c>
       <c r="C87">
-        <v>6.13</v>
+        <v>5.79</v>
       </c>
       <c r="D87">
-        <v>5.76</v>
+        <v>5.35</v>
       </c>
       <c r="E87">
-        <v>6.43</v>
+        <v>6.47</v>
       </c>
       <c r="F87">
-        <v>5.92</v>
+        <v>5.21</v>
       </c>
       <c r="G87">
-        <v>5.91</v>
+        <v>5.38</v>
       </c>
       <c r="H87">
-        <v>5.76</v>
+        <v>5.68</v>
       </c>
       <c r="I87">
-        <v>6.29</v>
+        <v>5.86</v>
       </c>
       <c r="J87">
-        <v>6.2</v>
+        <v>5.49</v>
       </c>
       <c r="K87">
-        <v>6.23</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3472,31 +3472,31 @@
         <v>27</v>
       </c>
       <c r="C88">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="D88">
-        <v>5.92</v>
+        <v>6.28</v>
       </c>
       <c r="E88">
-        <v>5.71</v>
+        <v>6.07</v>
       </c>
       <c r="F88">
-        <v>5.9</v>
+        <v>5.35</v>
       </c>
       <c r="G88">
-        <v>6.4</v>
+        <v>5.37</v>
       </c>
       <c r="H88">
-        <v>5.99</v>
+        <v>5.63</v>
       </c>
       <c r="I88">
-        <v>5.73</v>
+        <v>4.97</v>
       </c>
       <c r="J88">
-        <v>6.52</v>
+        <v>4.73</v>
       </c>
       <c r="K88">
-        <v>6.45</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3507,31 +3507,31 @@
         <v>28</v>
       </c>
       <c r="C89">
-        <v>5.39</v>
+        <v>6.16</v>
       </c>
       <c r="D89">
+        <v>5.05</v>
+      </c>
+      <c r="E89">
         <v>5.6</v>
       </c>
-      <c r="E89">
-        <v>5.79</v>
-      </c>
       <c r="F89">
-        <v>6.27</v>
+        <v>5.75</v>
       </c>
       <c r="G89">
-        <v>6.7</v>
+        <v>6.52</v>
       </c>
       <c r="H89">
-        <v>6.85</v>
+        <v>5.61</v>
       </c>
       <c r="I89">
-        <v>6.36</v>
+        <v>5.11</v>
       </c>
       <c r="J89">
-        <v>6.64</v>
+        <v>5.83</v>
       </c>
       <c r="K89">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3542,31 +3542,31 @@
         <v>29</v>
       </c>
       <c r="C90">
-        <v>6.39</v>
+        <v>5.54</v>
       </c>
       <c r="D90">
-        <v>6.14</v>
+        <v>5.68</v>
       </c>
       <c r="E90">
-        <v>6.15</v>
+        <v>5.81</v>
       </c>
       <c r="F90">
-        <v>5.65</v>
+        <v>5.12</v>
       </c>
       <c r="G90">
-        <v>6.29</v>
+        <v>5.75</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="I90">
-        <v>6.19</v>
+        <v>5.53</v>
       </c>
       <c r="J90">
-        <v>6.21</v>
+        <v>5.8</v>
       </c>
       <c r="K90">
-        <v>5.78</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3577,31 +3577,31 @@
         <v>30</v>
       </c>
       <c r="C91">
-        <v>5.7</v>
+        <v>5.17</v>
       </c>
       <c r="D91">
-        <v>5.9</v>
+        <v>6.35</v>
       </c>
       <c r="E91">
-        <v>6.74</v>
+        <v>5.97</v>
       </c>
       <c r="F91">
-        <v>6.85</v>
+        <v>5.43</v>
       </c>
       <c r="G91">
-        <v>6.05</v>
+        <v>6.98</v>
       </c>
       <c r="H91">
-        <v>6.64</v>
+        <v>5.72</v>
       </c>
       <c r="I91">
-        <v>6.12</v>
+        <v>5.1</v>
       </c>
       <c r="J91">
-        <v>6.29</v>
+        <v>5.73</v>
       </c>
       <c r="K91">
-        <v>6.54</v>
+        <v>5.96</v>
       </c>
     </row>
   </sheetData>
